--- a/results-data_files/授信部位/國內授信/國內企業授信.xlsx
+++ b/results-data_files/授信部位/國內授信/國內企業授信.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouzihan/Desktop/climate-stress-test-tool/results-data_files/授信部位/國內授信/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE522403-F12F-D84A-9591-294EAE46DF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB322AEE-4EB1-0041-82C4-67D2920B0EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="500" windowWidth="27300" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,24 @@
     <sheet name="國內授信彙總表(2030年)(企業授信)" sheetId="1" r:id="rId1"/>
     <sheet name="國內授信彙總表(2050年)(企業授信)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
   <si>
     <t>基準情境</t>
   </si>
@@ -68,8 +80,7 @@
     <t>範例8</t>
   </si>
   <si>
-    <t>平均違約率(%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>範例</t>
   </si>
 </sst>
 </file>
@@ -94,7 +105,7 @@
     <font>
       <sz val="9"/>
       <name val="新細明體"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -107,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -130,19 +141,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -445,50 +485,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:15">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -497,7 +553,7 @@
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -506,7 +562,7 @@
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -515,171 +571,186 @@
       <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>1.4410000000000001</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>20000000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D3">
-        <v>-7400</v>
-      </c>
-      <c r="F3">
-        <v>2.0499999999999998</v>
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <f>B3*C3*D3</f>
+        <v>22000000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.06</v>
       </c>
       <c r="G3">
-        <v>99.999996249999995</v>
-      </c>
-      <c r="I3">
-        <v>1.63</v>
+        <v>99.999249999999989</v>
+      </c>
+      <c r="H3">
+        <f>B3*F3*G3</f>
+        <v>119999099.99999999</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.05</v>
       </c>
       <c r="J3">
-        <v>99.999996874999994</v>
-      </c>
-      <c r="L3">
-        <v>1.95</v>
+        <v>99.999375000000001</v>
+      </c>
+      <c r="K3">
+        <f>B3*I3*J3</f>
+        <v>99999375</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.06</v>
       </c>
       <c r="M3">
-        <v>99.999996249999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>99.999249999999989</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3" si="0">B3*L3*M3</f>
+        <v>119999099.99999999</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4">
+        <v>11.5</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4">
+        <v>11.5</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4">
+        <v>11.714285714285721</v>
+      </c>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>120</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5" si="1">B5*C5*D5</f>
+        <v>131.99999999999997</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>-7400</v>
-      </c>
-      <c r="G4">
+      <c r="H5">
+        <f t="shared" ref="H5" si="2">B5*F5*G5</f>
+        <v>72</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="J5">
         <v>10</v>
       </c>
-      <c r="J4">
-        <v>21.875</v>
-      </c>
-      <c r="M4">
+      <c r="K5">
+        <f>B5*I5*J5</f>
+        <v>60</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="M5">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>20000000</v>
-      </c>
-      <c r="C5">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="D5">
-        <v>-7400</v>
-      </c>
-      <c r="E5">
-        <v>-651200</v>
-      </c>
-      <c r="F5">
-        <v>0.06</v>
-      </c>
-      <c r="G5">
-        <v>99.999249999999989</v>
-      </c>
-      <c r="I5">
-        <v>0.05</v>
-      </c>
-      <c r="J5">
-        <v>99.999375000000001</v>
-      </c>
-      <c r="K5">
-        <v>9999.9375</v>
-      </c>
-      <c r="L5">
-        <v>0.06</v>
-      </c>
-      <c r="M5">
-        <v>99.999249999999989</v>
-      </c>
       <c r="N5">
-        <v>11999.91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>-7400</v>
-      </c>
-      <c r="G6">
-        <v>11.5</v>
-      </c>
-      <c r="J6">
-        <v>11.5</v>
-      </c>
-      <c r="M6">
-        <v>11.714285714285721</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>-2900</v>
-      </c>
-      <c r="G7">
-        <v>57.142857142857139</v>
-      </c>
-      <c r="J7">
-        <v>64.285714285714278</v>
-      </c>
-      <c r="M7">
-        <v>57.142857142857139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>120</v>
-      </c>
-      <c r="C8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="D8">
-        <v>-7400</v>
-      </c>
-      <c r="E8">
-        <v>-3.9072</v>
-      </c>
-      <c r="F8">
-        <v>0.06</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <v>0.05</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8">
-        <v>5.9999999999999993E-3</v>
-      </c>
-      <c r="L8">
-        <v>0.06</v>
-      </c>
-      <c r="M8">
-        <v>10</v>
-      </c>
-      <c r="N8">
-        <v>7.1999999999999998E-3</v>
-      </c>
+        <f>B5*L5*M5</f>
+        <v>72</v>
+      </c>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="C6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="C7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="C8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="C9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="C10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="C11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="C12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="C15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="C16" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -695,33 +766,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
@@ -775,7 +846,7 @@
         <v>1.4410000000000001</v>
       </c>
       <c r="D3">
-        <v>-7400</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>2.3199999999999998</v>
@@ -801,7 +872,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>-7400</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <v>21.875</v>
@@ -824,10 +895,10 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="D5">
-        <v>-7400</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>-651200</v>
+        <v>2200</v>
       </c>
       <c r="F5">
         <v>0.17</v>
@@ -859,7 +930,7 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>-7400</v>
+        <v>25</v>
       </c>
       <c r="G6">
         <v>26.392857142857139</v>
@@ -876,7 +947,7 @@
         <v>13</v>
       </c>
       <c r="D7">
-        <v>-2900</v>
+        <v>70</v>
       </c>
       <c r="G7">
         <v>64.285714285714278</v>
@@ -899,10 +970,10 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="D8">
-        <v>-7400</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>-3.9072</v>
+        <v>1.32E-2</v>
       </c>
       <c r="F8">
         <v>0.17</v>
@@ -927,6 +998,47 @@
       </c>
       <c r="N8">
         <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>220</v>
+      </c>
+      <c r="C9">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.17</v>
+      </c>
+      <c r="G9">
+        <v>14.125</v>
+      </c>
+      <c r="I9">
+        <v>0.54</v>
+      </c>
+      <c r="J9">
+        <v>14.125</v>
+      </c>
+      <c r="K9">
+        <v>0.16780500000000001</v>
+      </c>
+      <c r="L9">
+        <v>0.06</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <v>1.32E-2</v>
       </c>
     </row>
   </sheetData>
